--- a/out/Матрица_Альтернатив_Год выпуска.xlsx
+++ b/out/Матрица_Альтернатив_Год выпуска.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +58,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/out/Матрица_Альтернатив_Год выпуска.xlsx
+++ b/out/Матрица_Альтернатив_Год выпуска.xlsx
@@ -936,7 +936,7 @@
       <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>ИС = 0.042</t>
+          <t>ИС = 0.021</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>ОС = 0.030</t>
+          <t>ОС = 0.017</t>
         </is>
       </c>
     </row>

--- a/out/Матрица_Альтернатив_Год выпуска.xlsx
+++ b/out/Матрица_Альтернатив_Год выпуска.xlsx
@@ -58,7 +58,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,61 +434,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.4" customWidth="1" min="1" max="1"/>
-    <col width="16.8" customWidth="1" min="2" max="2"/>
-    <col width="32.4" customWidth="1" min="3" max="3"/>
-    <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="16.8" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="15.6" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20.4" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="20.4" customWidth="1" min="3" max="3"/>
+    <col width="19.2" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="16.8" customWidth="1" min="6" max="6"/>
+    <col width="20.4" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Стоимость ТС</t>
+          <t>Kia Rio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Стоимость обслуживания ТС</t>
+          <t>Volkswagen Golf</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Надёжность</t>
+          <t>Toyota Corolla</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Безопасность</t>
+          <t>Skoda Octavia</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Дизайн</t>
+          <t>BMW 3 Series</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Комфорт</t>
+          <t>Hyundai Solaris</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Мощность</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Год выпуска</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Вектор приоритетов</t>
         </is>
@@ -495,7 +485,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Стоимость ТС</t>
+          <t>Kia Rio</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -510,44 +500,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1/2</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>0.327</t>
+          <t>0.221</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Стоимость обслуживания ТС</t>
+          <t>Volkswagen Golf</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -562,113 +542,93 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>0.157</t>
+          <t>0.093</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Надёжность</t>
+          <t>Toyota Corolla</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>0.227</t>
+          <t>0.333</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Безопасность</t>
+          <t>Skoda Octavia</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>1</t>
@@ -676,111 +636,91 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>0.108</t>
+          <t>0.221</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Дизайн</t>
+          <t>BMW 3 Series</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>1/6</t>
+          <t>1/5</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>1/7</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>0.050</t>
+          <t>0.039</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Комфорт</t>
+          <t>Hyundai Solaris</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -790,167 +730,47 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>0.073</t>
+          <t>0.093</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Мощность</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>1/7</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>1/6</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>0.034</t>
+          <t>λ_max = 6.103</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Год выпуска</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>1/8</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>1/6</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>1/7</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>0.024</t>
+          <t>ИС = 0.021</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr"/>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>λ_max = 6.103</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>ИС = 0.021</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
-      <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>ОС = 0.017</t>
         </is>
@@ -958,7 +778,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:I12"/>
+    <mergeCell ref="A8:G10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/Матрица_Альтернатив_Год выпуска.xlsx
+++ b/out/Матрица_Альтернатив_Год выпуска.xlsx
@@ -434,58 +434,67 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.4" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="20.4" customWidth="1" min="3" max="3"/>
-    <col width="19.2" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="16.8" customWidth="1" min="6" max="6"/>
-    <col width="20.4" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="10.8" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kia Rio</t>
+          <t>Kia
+Rio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen Golf</t>
+          <t>Volkswagen
+Golf</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Toyota Corolla</t>
+          <t>Toyota
+Corolla</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Skoda Octavia</t>
+          <t>Skoda
+Octavia</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BMW 3 Series</t>
+          <t>BMW
+3
+Series</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hyundai Solaris</t>
+          <t>Hyundai
+Solaris</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Вектор приоритетов</t>
+          <t>Вектор
+приоритетов</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kia Rio</t>
+          <t>Kia
+Rio</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -520,14 +529,15 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>0.221</t>
+          <t>0.222</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen Golf</t>
+          <t>Volkswagen
+Golf</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -562,14 +572,15 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.092</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Toyota Corolla</t>
+          <t>Toyota
+Corolla</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -611,7 +622,8 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Skoda Octavia</t>
+          <t>Skoda
+Octavia</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -646,14 +658,16 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>0.221</t>
+          <t>0.222</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BMW 3 Series</t>
+          <t>BMW
+3
+Series</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -695,7 +709,8 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hyundai Solaris</t>
+          <t>Hyundai
+Solaris</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -730,7 +745,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.092</t>
         </is>
       </c>
     </row>

--- a/out/Матрица_Альтернатив_Год выпуска.xlsx
+++ b/out/Матрица_Альтернатив_Год выпуска.xlsx
@@ -56,10 +56,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +438,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.4" customWidth="1" min="1" max="1"/>
+    <col width="15.6" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="14.4" customWidth="1" min="3" max="3"/>
     <col width="10.8" customWidth="1" min="4" max="4"/>
@@ -445,45 +449,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Год выпуска</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Kia
 Rio</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Volkswagen
 Golf</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Toyota
 Corolla</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Skoda
 Octavia</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>BMW
 3
 Series</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Hyundai
 Solaris</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Вектор
 приоритетов</t>
@@ -491,259 +499,259 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Kia
 Rio</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>0.222</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Volkswagen
 Golf</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>0.092</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Toyota
 Corolla</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>0.333</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Skoda
 Octavia</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>0.222</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BMW
 3
 Series</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>0.039</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Hyundai
 Solaris</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>0.092</t>
         </is>
@@ -757,7 +765,7 @@
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>λ_max = 6.103</t>
         </is>
@@ -771,7 +779,7 @@
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>ИС = 0.021</t>
         </is>
@@ -785,7 +793,7 @@
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>ОС = 0.017</t>
         </is>
